--- a/Output/dDescrW.xlsx
+++ b/Output/dDescrW.xlsx
@@ -414,12 +414,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14.11 (3.17) | Mdn = 15</t>
+          <t>14.36 (2.54) | Mdn = 15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>U(116) = 1695.5, p = 0.931</t>
+          <t>U(115) = 1635.5, p = 0.935</t>
         </is>
       </c>
     </row>

--- a/Output/dDescrW.xlsx
+++ b/Output/dDescrW.xlsx
@@ -629,17 +629,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.01 (0.07) | Mdn = 0</t>
+          <t>1.17 (4.26) | Mdn = 0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.02 (0.06) | Mdn = -0.01</t>
+          <t>-1.11 (3.71) | Mdn = -0.69</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>U(116) = 2220, p = 0.003*</t>
+          <t>U(116) = 2218, p = 0.003*</t>
         </is>
       </c>
     </row>
@@ -739,17 +739,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.01 (0.08) | Mdn = -0.01</t>
+          <t>1.08 (6.43) | Mdn = -0.34</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-0.02 (0.08) | Mdn = -0.02</t>
+          <t>-0.95 (5.06) | Mdn = -1.03</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>U(116) = 2050, p = 0.041*</t>
+          <t>U(116) = 2047, p = 0.043*</t>
         </is>
       </c>
     </row>
@@ -937,17 +937,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>50.73 (4.94) | Mdn = 51</t>
+          <t>41.95 (11.79) | Mdn = 40</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>50 (5.91) | Mdn = 50</t>
+          <t>40.02 (11.76) | Mdn = 39</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>U(114) = 1779, p = 0.375</t>
+          <t>t(111.49) = 0.88, p = 0.383</t>
         </is>
       </c>
     </row>
@@ -1553,12 +1553,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0.09 (0.06) | Mdn = 0.07</t>
+          <t>6.35 (4.8) | Mdn = 4.97</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.1 (0.06) | Mdn = 0.1</t>
+          <t>7.56 (4.79) | Mdn = 7.17</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1575,12 +1575,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0.08 (0.05) | Mdn = 0.06</t>
+          <t>5.52 (4.42) | Mdn = 4.14</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.1 (0.08) | Mdn = 0.08</t>
+          <t>7.7 (7.27) | Mdn = 5.93</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0.09 (0.06) | Mdn = 0.06</t>
+          <t>6.69 (5.39) | Mdn = 4</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.09 (0.07) | Mdn = 0.07</t>
+          <t>6.6 (6.55) | Mdn = 4.83</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1619,12 +1619,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0.09 (0.09) | Mdn = 0.06</t>
+          <t>7.35 (11.26) | Mdn = 3.86</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.09 (0.08) | Mdn = 0.06</t>
+          <t>6.76 (8.06) | Mdn = 4.41</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">

--- a/Output/dDescrW.xlsx
+++ b/Output/dDescrW.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,12 +365,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>-1 (n = 60)</t>
+          <t>1 (n = 91)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>1 (n = 56)</t>
+          <t>-1 (n = 25)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -387,17 +387,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>30.55 (9.78) | Mdn = 28.5</t>
+          <t>29.6 (8.91) | Mdn = 28</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>29.8 (8.53) | Mdn = 28</t>
+          <t>32.32 (9.94) | Mdn = 29</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>U(116) = 1712.5, p = 0.86</t>
+          <t>U(116) = 938.5, p = 0.182</t>
         </is>
       </c>
     </row>
@@ -409,17 +409,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>14.18 (2.76) | Mdn = 15</t>
+          <t>13.97 (2.79) | Mdn = 15</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14.36 (2.54) | Mdn = 15</t>
+          <t>15.36 (1.68) | Mdn = 15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>U(115) = 1635.5, p = 0.935</t>
+          <t>U(115) = 804.5, p = 0.024*</t>
         </is>
       </c>
     </row>
@@ -431,17 +431,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7.64 (5.35) | Mdn = 8</t>
+          <t>8.24 (6.48) | Mdn = 8</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7.45 (7.35) | Mdn = 5</t>
+          <t>5.16 (5.39) | Mdn = 3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>U(109) = 1690, p = 0.366</t>
+          <t>U(111) = 1412, p = 0.017*</t>
         </is>
       </c>
     </row>
@@ -453,17 +453,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.67 (0.82) | Mdn = 0</t>
+          <t>0.87 (2.1) | Mdn = 0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.14 (3.02) | Mdn = 0</t>
+          <t>0.71 (0.76) | Mdn = 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>t(6.41) = 0.41, p = 0.695</t>
+          <t>t(19.37) = 0.25, p = 0.806</t>
         </is>
       </c>
     </row>
@@ -475,17 +475,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5.44 (4.68) | Mdn = 6.5</t>
+          <t>6.64 (4.75) | Mdn = 8</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7.21 (4.52) | Mdn = 8</t>
+          <t>4.53 (4.03) | Mdn = 6</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>t(80.69) = 1.78, p = 0.079</t>
+          <t>t(28.02) = 1.86, p = 0.073</t>
         </is>
       </c>
     </row>
@@ -497,17 +497,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2.75 (3.02) | Mdn = 1.5</t>
+          <t>2.71 (2.84) | Mdn = 2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.27 (2.54) | Mdn = 1</t>
+          <t>1.8 (2.57) | Mdn = 0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>U(94) = 1145.5, p = 0.604</t>
+          <t>t(32.91) = 1.38, p = 0.178</t>
         </is>
       </c>
     </row>
@@ -519,17 +519,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>51.59 (27.92) | Mdn = 48</t>
+          <t>51.49 (26.85) | Mdn = 47</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>47.67 (25.98) | Mdn = 40</t>
+          <t>43.75 (27.48) | Mdn = 36.5</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>U(96) = 1196.5, p = 0.646</t>
+          <t>t(29.28) = 1.13, p = 0.269</t>
         </is>
       </c>
     </row>
@@ -541,17 +541,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.8 (2.05) | Mdn = 0</t>
+          <t>0.09 (1.69) | Mdn = 0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.29 (1.47) | Mdn = 0</t>
+          <t>0.96 (2.32) | Mdn = 0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>U(116) = 2303.5, p &lt; 0.001*</t>
+          <t>U(116) = 941.5, p = 0.152</t>
         </is>
       </c>
     </row>
@@ -563,17 +563,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-0.32 (1.52) | Mdn = 0</t>
+          <t>-0.16 (1.85) | Mdn = 0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.02 (1.87) | Mdn = 0</t>
+          <t>-0.2 (1) | Mdn = 0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>U(116) = 1429, p = 0.082</t>
+          <t>U(116) = 1241.5, p = 0.382</t>
         </is>
       </c>
     </row>
@@ -585,17 +585,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.43 (1.52) | Mdn = 0</t>
+          <t>-0.15 (1.72) | Mdn = 0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.54 (2) | Mdn = 0</t>
+          <t>0.38 (2.17) | Mdn = 0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>U(116) = 2310.5, p &lt; 0.001*</t>
+          <t>U(116) = 1075, p = 0.649</t>
         </is>
       </c>
     </row>
@@ -607,17 +607,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1.58 (2.44) | Mdn = 0</t>
+          <t>0.63 (1.92) | Mdn = 0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.02 (1.39) | Mdn = 0</t>
+          <t>1.56 (2.74) | Mdn = 0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>U(116) = 2359.5, p &lt; 0.001*</t>
+          <t>U(116) = 968.5, p = 0.182</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.17 (4.26) | Mdn = 0</t>
+          <t>-1.08 (3) | Mdn = -0.55</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-1.11 (3.71) | Mdn = -0.69</t>
+          <t>4.26 (5.03) | Mdn = 3.03</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>U(116) = 2218, p = 0.003*</t>
+          <t>U(116) = 290.5, p &lt; 0.001*</t>
         </is>
       </c>
     </row>
@@ -651,17 +651,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.1 (0.81) | Mdn = 0</t>
+          <t>-0.11 (1.49) | Mdn = 0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-0.12 (1.82) | Mdn = 0</t>
+          <t>0.25 (0.89) | Mdn = 0.25</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>t(14.43) = 0.4, p = 0.697</t>
+          <t>t(21.61) = 0.77, p = 0.451</t>
         </is>
       </c>
     </row>
@@ -673,17 +673,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.23 (1.43) | Mdn = 0</t>
+          <t>-0.03 (2.39) | Mdn = 0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-0.17 (2.76) | Mdn = 0</t>
+          <t>0.25 (1.16) | Mdn = 0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>t(15.64) = 0.46, p = 0.655</t>
+          <t>t(24.23) = 0.4, p = 0.691</t>
         </is>
       </c>
     </row>
@@ -695,17 +695,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0 (1.82) | Mdn = 0</t>
+          <t>-0.03 (2.04) | Mdn = 0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-0.04 (2.53) | Mdn = 0</t>
+          <t>0 (2.43) | Mdn = -0.5</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>t(19.42) = 0.05, p = 0.962</t>
+          <t>t(11.38) = 0.03, p = 0.979</t>
         </is>
       </c>
     </row>
@@ -717,17 +717,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.27 (0.96) | Mdn = 0</t>
+          <t>0.24 (0.77) | Mdn = 0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.12 (0.64) | Mdn = 0</t>
+          <t>0.12 (0.99) | Mdn = 0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>t(24.36) = 0.46, p = 0.652</t>
+          <t>t(10.75) = 0.28, p = 0.781</t>
         </is>
       </c>
     </row>
@@ -739,17 +739,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.08 (6.43) | Mdn = -0.34</t>
+          <t>-1.91 (2.62) | Mdn = -1.24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-0.95 (5.06) | Mdn = -1.03</t>
+          <t>7.43 (8.27) | Mdn = 5.52</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>U(116) = 2047, p = 0.043*</t>
+          <t>U(116) = 0, p &lt; 0.001*</t>
         </is>
       </c>
     </row>
@@ -761,17 +761,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.79 (0.15) | Mdn = 0.83</t>
+          <t>0.79 (0.14) | Mdn = 0.82</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.77 (0.15) | Mdn = 0.78</t>
+          <t>0.76 (0.17) | Mdn = 0.81</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>U(116) = 1841.5, p = 0.374</t>
+          <t>U(116) = 1220.5, p = 0.58</t>
         </is>
       </c>
     </row>
@@ -783,17 +783,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5.17 (1.66) | Mdn = 5</t>
+          <t>4.86 (2.07) | Mdn = 5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.64 (2.2) | Mdn = 5</t>
+          <t>5.12 (1.42) | Mdn = 5</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>U(116) = 1939, p = 0.148</t>
+          <t>t(55.15) = 0.73, p = 0.466</t>
         </is>
       </c>
     </row>
@@ -805,17 +805,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>49.95 (41.26) | Mdn = 38</t>
+          <t>47.84 (45.29) | Mdn = 37</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>40.5 (44.01) | Mdn = 30</t>
+          <t>36.48 (30.53) | Mdn = 30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>U(116) = 1993.5, p = 0.084</t>
+          <t>U(116) = 1261.5, p = 0.407</t>
         </is>
       </c>
     </row>
@@ -827,17 +827,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3.5 (2.88) | Mdn = 3</t>
+          <t>3.03 (2.39) | Mdn = 3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2.84 (2.08) | Mdn = 3</t>
+          <t>3.38 (2.62) | Mdn = 3</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>t(24.94) = 0.8, p = 0.434</t>
+          <t>t(10.03) = 0.34, p = 0.741</t>
         </is>
       </c>
     </row>
@@ -849,17 +849,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5.73 (5.29) | Mdn = 5</t>
+          <t>5.29 (5.39) | Mdn = 5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.2 (5.14) | Mdn = 2</t>
+          <t>3.92 (4.67) | Mdn = 2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>U(116) = 2040, p = 0.045*</t>
+          <t>U(116) = 1310, p = 0.245</t>
         </is>
       </c>
     </row>
@@ -871,17 +871,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>34.55 (7.09) | Mdn = 35.5</t>
+          <t>35.2 (7.33) | Mdn = 36</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>36.02 (7.12) | Mdn = 37</t>
+          <t>35.48 (6.36) | Mdn = 36</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>U(116) = 1440.5, p = 0.186</t>
+          <t>t(43.16) = 0.19, p = 0.85</t>
         </is>
       </c>
     </row>
@@ -893,17 +893,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>19.65 (7.79) | Mdn = 18</t>
+          <t>19.86 (7.76) | Mdn = 18</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>19.04 (7.56) | Mdn = 17.5</t>
+          <t>17.52 (7.1) | Mdn = 16</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>U(116) = 1743.5, p = 0.727</t>
+          <t>U(116) = 1347.5, p = 0.159</t>
         </is>
       </c>
     </row>
@@ -915,17 +915,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>33.63 (9.7) | Mdn = 33</t>
+          <t>34.07 (11.07) | Mdn = 32</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>33.91 (10.93) | Mdn = 32</t>
+          <t>32.68 (6.75) | Mdn = 33</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>U(115) = 1663.5, p = 0.951</t>
+          <t>t(63.65) = 0.78, p = 0.44</t>
         </is>
       </c>
     </row>
@@ -937,17 +937,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>41.95 (11.79) | Mdn = 40</t>
+          <t>41.45 (12.34) | Mdn = 40</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>40.02 (11.76) | Mdn = 39</t>
+          <t>39.48 (9.47) | Mdn = 39</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>t(111.49) = 0.88, p = 0.383</t>
+          <t>t(49.34) = 0.86, p = 0.396</t>
         </is>
       </c>
     </row>
@@ -959,17 +959,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>247.68 (188.54) | Mdn = 190</t>
+          <t>255.26 (199.55) | Mdn = 203.5</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>239.48 (189.88) | Mdn = 207</t>
+          <t>203.28 (138.05) | Mdn = 173</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>U(113) = 1643.5, p = 0.774</t>
+          <t>U(114) = 1224.5, p = 0.391</t>
         </is>
       </c>
     </row>
@@ -981,17 +981,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>43.22 (10.53) | Mdn = 43</t>
+          <t>40.54 (10.54) | Mdn = 40</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>37.62 (9.91) | Mdn = 37</t>
+          <t>40.54 (10.93) | Mdn = 41.5</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>U(115) = 2114.5, p = 0.009*</t>
+          <t>t(35.12) = 0, p = 0.999</t>
         </is>
       </c>
     </row>
@@ -1003,17 +1003,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>43.58 (10.06) | Mdn = 43</t>
+          <t>41.78 (9.65) | Mdn = 42</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>39.16 (9.08) | Mdn = 41</t>
+          <t>40.29 (10.55) | Mdn = 39.5</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>U(115) = 2082, p = 0.016*</t>
+          <t>U(114) = 1164.5, p = 0.62</t>
         </is>
       </c>
     </row>
@@ -1025,17 +1025,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>50.93 (10.57) | Mdn = 51</t>
+          <t>47.9 (12.98) | Mdn = 48</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>47.04 (13.78) | Mdn = 47</t>
+          <t>51.12 (11.49) | Mdn = 49.5</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>t(34.93) = 0.98, p = 0.333</t>
+          <t>t(12.23) = 0.69, p = 0.506</t>
         </is>
       </c>
     </row>
@@ -1047,17 +1047,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>32.73 (11.44) | Mdn = 34</t>
+          <t>29.63 (10.65) | Mdn = 28</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>28.09 (10.65) | Mdn = 27</t>
+          <t>31 (13.19) | Mdn = 29</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>t(28.51) = 1.26, p = 0.219</t>
+          <t>t(9.58) = 0.27, p = 0.793</t>
         </is>
       </c>
     </row>
@@ -1069,17 +1069,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>45.75 (7.68) | Mdn = 45.5</t>
+          <t>46.35 (8.47) | Mdn = 46</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>46.84 (9.16) | Mdn = 46.5</t>
+          <t>46 (8.34) | Mdn = 46</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>t(107.65) = 0.69, p = 0.491</t>
+          <t>t(38.7) = 0.19, p = 0.853</t>
         </is>
       </c>
     </row>
@@ -1091,17 +1091,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7.47 (3.32) | Mdn = 8</t>
+          <t>8.41 (3.29) | Mdn = 8</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>9.02 (3.14) | Mdn = 9</t>
+          <t>7.52 (3.36) | Mdn = 8</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>t(113.98) = 2.59, p = 0.011*</t>
+          <t>t(37.65) = 1.18, p = 0.247</t>
         </is>
       </c>
     </row>
@@ -1113,17 +1113,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>9.43 (2.97) | Mdn = 9</t>
+          <t>10.05 (2.64) | Mdn = 10</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>10.68 (2.47) | Mdn = 11</t>
+          <t>9.96 (3.36) | Mdn = 11</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>U(116) = 1273.5, p = 0.024*</t>
+          <t>t(32.6) = 0.13, p = 0.897</t>
         </is>
       </c>
     </row>
@@ -1135,17 +1135,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>9.87 (3.69) | Mdn = 9</t>
+          <t>8.57 (3.07) | Mdn = 8</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>7.64 (2.43) | Mdn = 8</t>
+          <t>9.6 (4.09) | Mdn = 9</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>U(116) = 2294, p = 0.001*</t>
+          <t>t(31.79) = 1.17, p = 0.251</t>
         </is>
       </c>
     </row>
@@ -1157,17 +1157,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>9.98 (3.82) | Mdn = 10</t>
+          <t>9.07 (3.3) | Mdn = 9</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>8.27 (2.91) | Mdn = 8</t>
+          <t>9.48 (4.23) | Mdn = 8</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>U(116) = 2127.5, p = 0.013*</t>
+          <t>t(32.43) = 0.45, p = 0.654</t>
         </is>
       </c>
     </row>
@@ -1179,17 +1179,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>9 (3.64) | Mdn = 8.5</t>
+          <t>10.25 (3.47) | Mdn = 11</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>11.23 (2.7) | Mdn = 11.5</t>
+          <t>9.44 (3.1) | Mdn = 10</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>U(116) = 1061.5, p = 0.001*</t>
+          <t>t(42.03) = 1.13, p = 0.264</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2.6 (3.04) | Mdn = 1</t>
+          <t>2.63 (3.24) | Mdn = 1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>3 (3.74) | Mdn = 0.5</t>
+          <t>3.12 (3.68) | Mdn = 1.5</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>t(21.08) = 0.3, p = 0.767</t>
+          <t>t(11.81) = 0.33, p = 0.748</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3.32 (3.11) | Mdn = 2</t>
+          <t>3.85 (3.23) | Mdn = 3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>4.07 (3.4) | Mdn = 3</t>
+          <t>3.08 (3.37) | Mdn = 2</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>U(116) = 1481, p = 0.268</t>
+          <t>t(37.03) = 1.02, p = 0.316</t>
         </is>
       </c>
     </row>
@@ -1245,17 +1245,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4.12 (3.19) | Mdn = 4</t>
+          <t>3.93 (3.15) | Mdn = 4</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3.79 (3.25) | Mdn = 3.5</t>
+          <t>4.04 (3.49) | Mdn = 3</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>U(116) = 1796.5, p = 0.518</t>
+          <t>t(35.45) = 0.14, p = 0.892</t>
         </is>
       </c>
     </row>
@@ -1267,17 +1267,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2.8 (3.43) | Mdn = 1</t>
+          <t>2.74 (2.9) | Mdn = 2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3.25 (3.36) | Mdn = 2.5</t>
+          <t>3.62 (4.37) | Mdn = 1.5</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>t(23.91) = 0.34, p = 0.735</t>
+          <t>t(9.71) = 0.53, p = 0.61</t>
         </is>
       </c>
     </row>
@@ -1289,17 +1289,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>8.2 (2.7) | Mdn = 10</t>
+          <t>8.63 (2.36) | Mdn = 10</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>9 (2.37) | Mdn = 10</t>
+          <t>8.38 (3.11) | Mdn = 10</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>t(24.74) = 0.82, p = 0.421</t>
+          <t>t(10.56) = 0.21, p = 0.838</t>
         </is>
       </c>
     </row>
@@ -1311,17 +1311,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>8.22 (2.26) | Mdn = 9</t>
+          <t>8.16 (2.14) | Mdn = 9</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>8.29 (2.22) | Mdn = 9</t>
+          <t>8.56 (2.58) | Mdn = 10</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>U(116) = 1665, p = 0.933</t>
+          <t>U(116) = 902.5, p = 0.097</t>
         </is>
       </c>
     </row>
@@ -1333,17 +1333,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>7.9 (2.41) | Mdn = 9</t>
+          <t>8 (2.34) | Mdn = 9</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>8.27 (2.42) | Mdn = 9</t>
+          <t>8.36 (2.71) | Mdn = 10</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>U(116) = 1511, p = 0.33</t>
+          <t>U(116) = 961, p = 0.216</t>
         </is>
       </c>
     </row>
@@ -1355,17 +1355,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>8.27 (2.99) | Mdn = 10</t>
+          <t>8.37 (2.36) | Mdn = 10</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>8.58 (2.35) | Mdn = 10</t>
+          <t>8.5 (3.51) | Mdn = 10</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>t(25) = 0.31, p = 0.761</t>
+          <t>t(9.79) = 0.1, p = 0.924</t>
         </is>
       </c>
     </row>
@@ -1377,17 +1377,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2.53 (2.5) | Mdn = 2</t>
+          <t>2.84 (2.29) | Mdn = 3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2.88 (2) | Mdn = 3.25</t>
+          <t>2.31 (2.28) | Mdn = 2.25</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>t(25) = 0.39, p = 0.697</t>
+          <t>t(13.27) = 0.55, p = 0.592</t>
         </is>
       </c>
     </row>
@@ -1399,17 +1399,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1.88 (1.91) | Mdn = 1.5</t>
+          <t>2.18 (2.27) | Mdn = 2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2.3 (2.48) | Mdn = 2</t>
+          <t>1.76 (1.92) | Mdn = 1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>U(116) = 1572, p = 0.542</t>
+          <t>U(116) = 1236.5, p = 0.497</t>
         </is>
       </c>
     </row>
@@ -1421,17 +1421,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2.32 (2.35) | Mdn = 2</t>
+          <t>2.02 (2.53) | Mdn = 1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.76 (2.7) | Mdn = 1</t>
+          <t>2.14 (2.58) | Mdn = 1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>U(116) = 2029.5, p = 0.046*</t>
+          <t>U(116) = 1118, p = 0.895</t>
         </is>
       </c>
     </row>
@@ -1443,17 +1443,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2.13 (2.39) | Mdn = 1</t>
+          <t>2.68 (2.71) | Mdn = 2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2.75 (3.02) | Mdn = 2</t>
+          <t>1.75 (2.55) | Mdn = 0.5</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>t(20.69) = 0.58, p = 0.57</t>
+          <t>t(14.01) = 0.85, p = 0.408</t>
         </is>
       </c>
     </row>
@@ -1465,17 +1465,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0.67 (1.45) | Mdn = 0</t>
+          <t>0.53 (1.22) | Mdn = 0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.67 (1.23) | Mdn = 0</t>
+          <t>1 (1.6) | Mdn = 0</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>U(23) = 85, p = 0.785</t>
+          <t>U(19) = 65.5, p = 0.51</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1487,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0.95 (1.53) | Mdn = 0</t>
+          <t>0.9 (1.78) | Mdn = 0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.76 (1.78) | Mdn = 0</t>
+          <t>0.7 (1.06) | Mdn = 0</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>U(116) = 1989, p = 0.051</t>
+          <t>U(116) = 1098.5, p = 0.767</t>
         </is>
       </c>
     </row>
@@ -1509,17 +1509,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2.53 (2.9) | Mdn = 1.5</t>
+          <t>1.53 (2.43) | Mdn = 0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.78 (1.76) | Mdn = 0</t>
+          <t>2.26 (2.99) | Mdn = 0.5</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>U(116) = 2324.5, p &lt; 0.001*</t>
+          <t>U(116) = 987, p = 0.267</t>
         </is>
       </c>
     </row>
@@ -1531,17 +1531,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0.93 (1.79) | Mdn = 0</t>
+          <t>0.89 (1.59) | Mdn = 0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.75 (0.75) | Mdn = 1</t>
+          <t>0.75 (0.89) | Mdn = 0.5</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>U(23) = 75, p = 0.432</t>
+          <t>t(22.69) = 0.3, p = 0.767</t>
         </is>
       </c>
     </row>
@@ -1553,17 +1553,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6.35 (4.8) | Mdn = 4.97</t>
+          <t>7.2 (5.06) | Mdn = 5.52</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>7.56 (4.79) | Mdn = 7.17</t>
+          <t>5.98 (3.71) | Mdn = 4.69</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>U(116) = 1401.5, p = 0.124</t>
+          <t>U(116) = 1269, p = 0.379</t>
         </is>
       </c>
     </row>
@@ -1575,17 +1575,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5.52 (4.42) | Mdn = 4.14</t>
+          <t>6.2 (5.31) | Mdn = 4.69</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>7.7 (7.27) | Mdn = 5.93</t>
+          <t>7.93 (8.18) | Mdn = 5.24</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>U(116) = 1373.5, p = 0.091</t>
+          <t>U(116) = 1029, p = 0.468</t>
         </is>
       </c>
     </row>
@@ -1597,17 +1597,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6.69 (5.39) | Mdn = 4</t>
+          <t>5.12 (4.09) | Mdn = 3.86</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>6.6 (6.55) | Mdn = 4.83</t>
+          <t>12.19 (8.14) | Mdn = 10.21</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>U(116) = 1738, p = 0.751</t>
+          <t>U(116) = 432, p &lt; 0.001*</t>
         </is>
       </c>
     </row>
@@ -1619,17 +1619,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7.35 (11.26) | Mdn = 3.86</t>
+          <t>4.45 (3.72) | Mdn = 3.31</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>6.76 (8.06) | Mdn = 4.41</t>
+          <t>16.57 (16.99) | Mdn = 10.76</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>U(116) = 1774, p = 0.605</t>
+          <t>U(116) = 260, p &lt; 0.001*</t>
         </is>
       </c>
     </row>
@@ -1641,17 +1641,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0.4 (0.3) | Mdn = 0.33</t>
+          <t>0.37 (0.28) | Mdn = 0.31</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.35 (0.27) | Mdn = 0.3</t>
+          <t>0.42 (0.32) | Mdn = 0.28</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>U(116) = 1851, p = 0.346</t>
+          <t>t(34.79) = 0.73, p = 0.473</t>
         </is>
       </c>
     </row>
@@ -1663,17 +1663,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4.86 (3.63) | Mdn = 3.9</t>
+          <t>5.1 (3.89) | Mdn = 3.63</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>5.31 (3.96) | Mdn = 3.52</t>
+          <t>4.99 (3.44) | Mdn = 4.54</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>U(116) = 1703, p = 0.901</t>
+          <t>U(116) = 1007, p = 0.383</t>
         </is>
       </c>
     </row>
@@ -1685,17 +1685,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0.24 (0.23) | Mdn = 0.16</t>
+          <t>0.27 (0.25) | Mdn = 0.17</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.3 (0.26) | Mdn = 0.22</t>
+          <t>0.29 (0.23) | Mdn = 0.21</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>U(116) = 1537, p = 0.431</t>
+          <t>t(40.81) = 0.47, p = 0.64</t>
         </is>
       </c>
     </row>
@@ -1707,17 +1707,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3.6 (2.15) | Mdn = 2.91</t>
+          <t>3.62 (2.45) | Mdn = 2.85</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>3.6 (2.54) | Mdn = 2.82</t>
+          <t>3.54 (1.92) | Mdn = 3.13</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>U(116) = 1767, p = 0.633</t>
+          <t>U(116) = 1127, p = 0.946</t>
         </is>
       </c>
     </row>
@@ -1729,17 +1729,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1.09 (0.87) | Mdn = 0.99</t>
+          <t>0.99 (0.7) | Mdn = 0.91</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1.01 (0.7) | Mdn = 0.92</t>
+          <t>1.29 (1.04) | Mdn = 1.1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>U(116) = 1721, p = 0.823</t>
+          <t>U(116) = 976, p = 0.28</t>
         </is>
       </c>
     </row>
@@ -1751,17 +1751,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0.47 (0.08) | Mdn = 0.49</t>
+          <t>0.49 (0.09) | Mdn = 0.49</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0.48 (0.1) | Mdn = 0.48</t>
+          <t>0.44 (0.08) | Mdn = 0.47</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>U(116) = 1751, p = 0.697</t>
+          <t>t(43.2) = 2.45, p = 0.019*</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>U(116) = 1578, p = 0.575</t>
+          <t>U(116) = 968, p = 0.256</t>
         </is>
       </c>
     </row>
@@ -1795,17 +1795,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0.83 (0.18) | Mdn = 0.9</t>
+          <t>0.82 (0.17) | Mdn = 0.87</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0.83 (0.16) | Mdn = 0.88</t>
+          <t>0.86 (0.15) | Mdn = 0.9</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>U(116) = 1794.5, p = 0.529</t>
+          <t>U(116) = 995, p = 0.34</t>
         </is>
       </c>
     </row>
@@ -1817,17 +1817,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0.79 (0.18) | Mdn = 0.79</t>
+          <t>0.77 (0.17) | Mdn = 0.79</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0.78 (0.15) | Mdn = 0.8</t>
+          <t>0.83 (0.16) | Mdn = 0.91</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>U(116) = 1838, p = 0.384</t>
+          <t>t(40.16) = 1.84, p = 0.074</t>
         </is>
       </c>
     </row>
@@ -1839,17 +1839,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0.66 (0.19) | Mdn = 0.7</t>
+          <t>0.67 (0.16) | Mdn = 0.69</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.69 (0.15) | Mdn = 0.7</t>
+          <t>0.71 (0.2) | Mdn = 0.72</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>t(110.87) = 0.7, p = 0.484</t>
+          <t>t(32.81) = 0.93, p = 0.362</t>
         </is>
       </c>
     </row>
@@ -1861,17 +1861,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0.71 (0.21) | Mdn = 0.74</t>
+          <t>0.71 (0.17) | Mdn = 0.69</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0.71 (0.17) | Mdn = 0.69</t>
+          <t>0.72 (0.26) | Mdn = 0.79</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>U(116) = 1824.5, p = 0.426</t>
+          <t>t(30.09) = 0.19, p = 0.848</t>
         </is>
       </c>
     </row>
@@ -1883,17 +1883,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0.83 (0.18) | Mdn = 0.88</t>
+          <t>0.82 (0.17) | Mdn = 0.88</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0.82 (0.16) | Mdn = 0.87</t>
+          <t>0.86 (0.15) | Mdn = 0.89</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>U(116) = 1779, p = 0.586</t>
+          <t>U(116) = 1002.5, p = 0.366</t>
         </is>
       </c>
     </row>
@@ -1905,17 +1905,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0.78 (0.19) | Mdn = 0.81</t>
+          <t>0.76 (0.18) | Mdn = 0.8</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.77 (0.16) | Mdn = 0.81</t>
+          <t>0.83 (0.16) | Mdn = 0.89</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>U(116) = 1804.5, p = 0.493</t>
+          <t>t(41.77) = 1.88, p = 0.066</t>
         </is>
       </c>
     </row>
@@ -1927,17 +1927,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0.66 (0.18) | Mdn = 0.68</t>
+          <t>0.67 (0.16) | Mdn = 0.68</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.69 (0.15) | Mdn = 0.68</t>
+          <t>0.7 (0.2) | Mdn = 0.71</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>t(112.27) = 0.76, p = 0.447</t>
+          <t>t(32.67) = 0.82, p = 0.416</t>
         </is>
       </c>
     </row>
@@ -1949,17 +1949,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0.72 (0.21) | Mdn = 0.75</t>
+          <t>0.71 (0.17) | Mdn = 0.71</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.71 (0.17) | Mdn = 0.71</t>
+          <t>0.73 (0.25) | Mdn = 0.76</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>U(116) = 1833.5, p = 0.398</t>
+          <t>t(30.67) = 0.29, p = 0.773</t>
         </is>
       </c>
     </row>
@@ -1971,17 +1971,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0.1 (0.17) | Mdn = 0.09</t>
+          <t>0.1 (0.22) | Mdn = 0.06</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0.07 (0.24) | Mdn = 0.04</t>
+          <t>0.04 (0.15) | Mdn = 0.04</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>U(116) = 1948, p = 0.139</t>
+          <t>U(116) = 1248, p = 0.46</t>
         </is>
       </c>
     </row>
@@ -1993,17 +1993,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0.24 (0.41) | Mdn = 0.15</t>
+          <t>0.21 (0.34) | Mdn = 0.2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0.21 (0.29) | Mdn = 0.2</t>
+          <t>0.27 (0.42) | Mdn = 0.08</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>U(116) = 1633, p = 0.797</t>
+          <t>U(116) = 1183, p = 0.763</t>
         </is>
       </c>
     </row>
@@ -2015,17 +2015,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0.05 (0.12) | Mdn = 0.04</t>
+          <t>0.04 (0.13) | Mdn = 0.03</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0.02 (0.14) | Mdn = 0.01</t>
+          <t>0.01 (0.13) | Mdn = 0.04</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>U(116) = 1923, p = 0.18</t>
+          <t>t(39.75) = 1.04, p = 0.305</t>
         </is>
       </c>
     </row>
@@ -2037,17 +2037,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0.05 (0.11) | Mdn = 0.02</t>
+          <t>0.05 (0.14) | Mdn = 0.02</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0.05 (0.15) | Mdn = 0.02</t>
+          <t>0.03 (0.08) | Mdn = 0.02</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>U(116) = 1742, p = 0.734</t>
+          <t>U(116) = 1230.5, p = 0.535</t>
         </is>
       </c>
     </row>
@@ -2059,17 +2059,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0.11 (0.17) | Mdn = 0.11</t>
+          <t>0.1 (0.22) | Mdn = 0.09</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0.07 (0.23) | Mdn = 0.04</t>
+          <t>0.05 (0.16) | Mdn = 0.07</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>U(116) = 2032, p = 0.052</t>
+          <t>U(116) = 1244, p = 0.477</t>
         </is>
       </c>
     </row>
@@ -2081,17 +2081,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0.22 (0.41) | Mdn = 0.15</t>
+          <t>0.2 (0.33) | Mdn = 0.19</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0.2 (0.3) | Mdn = 0.2</t>
+          <t>0.26 (0.43) | Mdn = 0.09</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>U(116) = 1591, p = 0.625</t>
+          <t>U(116) = 1199, p = 0.682</t>
         </is>
       </c>
     </row>
@@ -2103,17 +2103,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0.06 (0.11) | Mdn = 0.06</t>
+          <t>0.04 (0.13) | Mdn = 0.05</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0.02 (0.14) | Mdn = 0.02</t>
+          <t>0.02 (0.12) | Mdn = 0.05</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>U(116) = 1997, p = 0.08</t>
+          <t>t(39.64) = 0.72, p = 0.476</t>
         </is>
       </c>
     </row>
@@ -2125,17 +2125,61 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0.05 (0.12) | Mdn = 0.02</t>
+          <t>0.05 (0.15) | Mdn = 0.03</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0.05 (0.15) | Mdn = 0.03</t>
+          <t>0.03 (0.08) | Mdn = 0.01</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>U(116) = 1712, p = 0.862</t>
+          <t>U(116) = 1260, p = 0.413</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>MBv</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2.51 (2.15) | Mdn = 1.7</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2.2 (1.67) | Mdn = 1.78</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>U(116) = 1102, p = 0.814</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>MFv</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2.59 (2.03) | Mdn = 1.85</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2.79 (1.86) | Mdn = 2.38</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>U(116) = 908, p = 0.124</t>
         </is>
       </c>
     </row>
